--- a/Horarios Grupales Finales.xlsx
+++ b/Horarios Grupales Finales.xlsx
@@ -213,75 +213,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="22">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="8.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="8.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="8.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="7.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="8.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="8.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="8.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="7.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -379,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center"/>
@@ -392,6 +330,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
       <alignment horizontal="center"/>
@@ -424,96 +365,6 @@
       <alignment vertical="center" horizontal="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="right" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" horizontal="right" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="right" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" horizontal="right" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="right" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -765,6 +616,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="92D050"/>
+  </sheetPr>
   <dimension ref="A4:X42"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" showGridLines="false"/>
@@ -821,7 +675,7 @@
       <c r="B10" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E10" t="s" s="4">
+      <c r="E10" t="s" s="5">
         <v>5</v>
       </c>
       <c r="P10" t="s" s="4">
@@ -835,978 +689,978 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="6">
+      <c r="A12" t="s" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7" t="s">
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7" t="s">
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="12" t="n">
+      <c r="A14" s="13" t="n">
         <v>1.0</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="9" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="12" t="n">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="13" t="n">
         <v>4.0</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="9" t="s">
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="12" t="n">
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="13" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="12" t="n">
+      <c r="A15" s="13" t="n">
         <v>2.0</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="9" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="12" t="n">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="13" t="n">
         <v>5.0</v>
       </c>
-      <c r="M15" s="9" t="s">
+      <c r="M15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="9" t="s">
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="12" t="n">
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="13" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" t="n" s="11">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" t="n" s="12">
         <v>9.0</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="M16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" t="s" s="7">
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" t="s" s="8">
         <v>20</v>
       </c>
     </row>
     <row r="17">
-      <c r="S17" s="15" t="s">
+      <c r="S17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" t="n" s="6">
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" t="n" s="7">
         <v>9.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" t="s" s="8">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" t="s" s="9">
         <v>23</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" t="s" s="7">
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" t="s" s="8">
         <v>24</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" t="s" s="8">
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" t="s" s="9">
         <v>25</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="M19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" t="s" s="7">
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" t="s" s="8">
         <v>26</v>
       </c>
-      <c r="Q19" s="8" t="s">
+      <c r="Q19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" t="s" s="8">
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="U19" s="7" t="s">
+      <c r="U19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" t="s" s="7">
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" t="s" s="8">
         <v>28</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" t="s" s="12">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="I20" s="12" t="s">
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" t="s" s="12">
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="M20" s="12" t="s">
+      <c r="M20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="Q20" s="12" t="s">
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="U20" s="12" t="s">
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" t="s" s="12">
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" t="s" s="12">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="I21" s="12" t="s">
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" t="s" s="12">
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="M21" s="12" t="s">
+      <c r="M21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="12" t="s">
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="U21" s="12" t="s">
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" t="s" s="12">
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="E22" s="12" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="I22" s="12" t="s">
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I22" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="M22" s="12" t="s">
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M22" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="Q22" s="12" t="s">
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q22" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="U22" s="12" t="s">
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U22" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" t="s" s="12">
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" t="s" s="12">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" t="s" s="12">
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" t="s" s="12">
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="M23" s="12" t="s">
+      <c r="M23" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" t="s" s="12">
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="Q23" s="12" t="s">
+      <c r="Q23" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" t="s" s="12">
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="U23" s="12" t="s">
+      <c r="U23" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" t="s" s="12">
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="E24" s="12" t="s">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="I24" s="12" t="s">
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I24" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="M24" s="12" t="s">
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M24" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="12" t="s">
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="U24" s="12" t="s">
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U24" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" t="s" s="12">
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="E25" s="12" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="I25" s="12" t="s">
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I25" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="M25" s="12" t="s">
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M25" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="Q25" s="12" t="s">
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q25" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="U25" s="12" t="s">
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U25" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" t="s" s="12">
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="E26" s="12" t="s">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="I26" s="12" t="s">
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I26" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="M26" s="12" t="s">
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M26" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="Q26" s="12" t="s">
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q26" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="U26" s="12" t="s">
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U26" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" t="s" s="12">
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="E27" s="12" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="I27" s="12" t="s">
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I27" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="M27" s="12" t="s">
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M27" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="Q27" s="12" t="s">
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="U27" s="12" t="s">
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U27" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" t="s" s="12">
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="E28" s="12" t="s">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="I28" s="12" t="s">
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I28" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="M28" s="12" t="s">
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M28" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="Q28" s="12" t="s">
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q28" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="U28" s="12" t="s">
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U28" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" t="s" s="12">
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="E29" s="12" t="s">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="I29" s="12" t="s">
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I29" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="M29" s="12" t="s">
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M29" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="Q29" s="12" t="s">
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q29" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="U29" s="12" t="s">
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U29" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" t="s" s="12">
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="E30" s="12" t="s">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="I30" s="12" t="s">
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I30" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="M30" s="12" t="s">
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M30" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="Q30" s="12" t="s">
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="U30" s="12" t="s">
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U30" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" t="s" s="12">
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="E31" s="12" t="s">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="I31" s="12" t="s">
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I31" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="M31" s="12" t="s">
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M31" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="Q31" s="12" t="s">
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q31" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="U31" s="12" t="s">
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U31" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" t="s" s="12">
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="E32" s="12" t="s">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="I32" s="12" t="s">
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I32" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="M32" s="12" t="s">
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M32" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="Q32" s="12" t="s">
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q32" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="U32" s="12" t="s">
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U32" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
-      <c r="X32" t="s" s="12">
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="E33" s="12" t="s">
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E33" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="I33" s="12" t="s">
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I33" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="M33" s="12" t="s">
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M33" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="Q33" s="12" t="s">
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q33" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="U33" s="12" t="s">
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U33" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" t="s" s="12">
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D34" t="s" s="7">
+      <c r="D34" t="s" s="8">
         <v>45</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" t="s" s="7">
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" t="s" s="8">
         <v>46</v>
       </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" t="s" s="7">
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" t="s" s="8">
         <v>45</v>
       </c>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" t="s" s="7">
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" t="s" s="8">
         <v>46</v>
       </c>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" t="s" s="7">
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" t="s" s="8">
         <v>46</v>
       </c>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="7"/>
-      <c r="X34" t="s" s="7">
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" t="s" s="8">
         <v>47</v>
       </c>
     </row>
     <row r="35">
-      <c r="T35" s="15" t="s">
+      <c r="T35" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="U35" s="15" t="s">
+      <c r="U35" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="V35" s="15" t="s">
+      <c r="V35" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="W35" s="15" t="s">
+      <c r="W35" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="X35" t="s" s="6">
+      <c r="X35" t="s" s="7">
         <v>49</v>
       </c>
     </row>
@@ -1852,18 +1706,18 @@
     </row>
     <row r="41"/>
     <row r="42">
-      <c r="O42" s="5" t="s">
+      <c r="O42" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="124">
@@ -1999,6 +1853,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="92D050"/>
+  </sheetPr>
   <dimension ref="A4:X41"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="false"/>
@@ -2032,1034 +1889,1034 @@
   </cols>
   <sheetData>
     <row r="4">
-      <c r="A4" t="s" s="16">
+      <c r="A4" t="s" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="18">
+      <c r="A5" t="s" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="17">
+      <c r="A7" t="s" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="17">
+      <c r="A8" t="s" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" t="s" s="19">
+      <c r="B10" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E10" t="s" s="19">
+      <c r="E10" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="P10" t="s" s="19">
+      <c r="P10" t="s" s="4">
         <v>54</v>
       </c>
-      <c r="U10" t="s" s="19">
+      <c r="U10" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="X10" t="s" s="19">
+      <c r="X10" t="s" s="4">
         <v>55</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="21">
+      <c r="A12" t="s" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M13" s="22" t="s">
+      <c r="M13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22" t="s">
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22" t="s">
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="27" t="n">
+      <c r="A14" s="13" t="n">
         <v>1.0</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="24" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="27" t="n">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="13" t="n">
         <v>5.0</v>
       </c>
-      <c r="M14" s="24" t="s">
+      <c r="M14" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="24" t="s">
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="27" t="n">
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="13" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" t="n" s="26">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" t="n" s="12">
         <v>5.0</v>
       </c>
-      <c r="M15" s="25" t="s">
+      <c r="M15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" t="s" s="22">
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" t="s" s="8">
         <v>20</v>
       </c>
     </row>
     <row r="16">
-      <c r="S16" s="30" t="s">
+      <c r="S16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" t="n" s="21">
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" t="n" s="7">
         <v>5.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" t="s" s="23">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" t="s" s="9">
         <v>23</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" t="s" s="22">
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" t="s" s="8">
         <v>24</v>
       </c>
-      <c r="I18" s="23" t="s">
+      <c r="I18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" t="s" s="23">
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" t="s" s="9">
         <v>25</v>
       </c>
-      <c r="M18" s="22" t="s">
+      <c r="M18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" t="s" s="22">
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" t="s" s="8">
         <v>26</v>
       </c>
-      <c r="Q18" s="23" t="s">
+      <c r="Q18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" t="s" s="23">
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="U18" s="22" t="s">
+      <c r="U18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-      <c r="X18" t="s" s="22">
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" t="s" s="8">
         <v>28</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="E19" s="27" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="I19" s="27" t="s">
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I19" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="M19" s="27" t="s">
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M19" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="Q19" s="27" t="s">
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q19" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="U19" s="27" t="s">
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U19" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" t="s" s="27">
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="E20" s="27" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="I20" s="27" t="s">
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="M20" s="27" t="s">
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="Q20" s="27" t="s">
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="U20" s="27" t="s">
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" t="s" s="27">
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="E21" s="27" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="I21" s="27" t="s">
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="M21" s="27" t="s">
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="27" t="s">
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="U21" s="27" t="s">
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" t="s" s="27">
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="E22" s="27" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" t="s" s="27">
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" t="s" s="13">
         <v>56</v>
       </c>
-      <c r="I22" s="27" t="s">
+      <c r="I22" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="M22" s="27" t="s">
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M22" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" t="s" s="27">
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" t="s" s="13">
         <v>56</v>
       </c>
-      <c r="Q22" s="27" t="s">
+      <c r="Q22" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" t="s" s="27">
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" t="s" s="13">
         <v>56</v>
       </c>
-      <c r="U22" s="27" t="s">
+      <c r="U22" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" t="s" s="27">
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="E23" s="27" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" t="s" s="27">
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" t="s" s="13">
         <v>56</v>
       </c>
-      <c r="I23" s="27" t="s">
+      <c r="I23" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="M23" s="27" t="s">
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M23" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" t="s" s="27">
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" t="s" s="13">
         <v>56</v>
       </c>
-      <c r="Q23" s="27" t="s">
+      <c r="Q23" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="U23" s="27" t="s">
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U23" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" t="s" s="27">
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="E24" s="27" t="s">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="I24" s="27" t="s">
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I24" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="M24" s="27" t="s">
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M24" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="27" t="s">
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="U24" s="27" t="s">
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U24" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" t="s" s="27">
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="E25" s="27" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="I25" s="27" t="s">
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I25" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="M25" s="27" t="s">
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M25" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="Q25" s="27" t="s">
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q25" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="U25" s="27" t="s">
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U25" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" t="s" s="27">
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="E26" s="27" t="s">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="I26" s="27" t="s">
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I26" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="M26" s="27" t="s">
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M26" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="Q26" s="27" t="s">
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q26" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="U26" s="27" t="s">
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U26" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="V26" s="27"/>
-      <c r="W26" s="27"/>
-      <c r="X26" t="s" s="27">
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="E27" s="27" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="I27" s="27" t="s">
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I27" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="M27" s="27" t="s">
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M27" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="Q27" s="27" t="s">
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="U27" s="27" t="s">
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U27" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-      <c r="X27" t="s" s="27">
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="E28" s="27" t="s">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="I28" s="27" t="s">
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I28" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="M28" s="27" t="s">
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M28" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="Q28" s="27" t="s">
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q28" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="R28" s="27"/>
-      <c r="S28" s="27"/>
-      <c r="T28" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="U28" s="27" t="s">
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U28" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="V28" s="27"/>
-      <c r="W28" s="27"/>
-      <c r="X28" t="s" s="27">
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="E29" s="27" t="s">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="I29" s="27" t="s">
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I29" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="M29" s="27" t="s">
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M29" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="Q29" s="27" t="s">
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q29" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="U29" s="27" t="s">
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U29" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
-      <c r="X29" t="s" s="27">
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="E30" s="27" t="s">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="I30" s="27" t="s">
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I30" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="M30" s="27" t="s">
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M30" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="Q30" s="27" t="s">
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="U30" s="27" t="s">
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U30" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="V30" s="27"/>
-      <c r="W30" s="27"/>
-      <c r="X30" t="s" s="27">
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="E31" s="27" t="s">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="I31" s="27" t="s">
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I31" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="M31" s="27" t="s">
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M31" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="Q31" s="27" t="s">
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q31" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="U31" s="27" t="s">
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U31" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="V31" s="27"/>
-      <c r="W31" s="27"/>
-      <c r="X31" t="s" s="27">
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="E32" s="27" t="s">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="I32" s="27" t="s">
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I32" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="M32" s="27" t="s">
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M32" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="Q32" s="27" t="s">
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q32" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
-      <c r="T32" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="U32" s="27" t="s">
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U32" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="V32" s="27"/>
-      <c r="W32" s="27"/>
-      <c r="X32" t="s" s="27">
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D33" t="s" s="22">
+      <c r="D33" t="s" s="8">
         <v>47</v>
       </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" t="s" s="22">
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" t="s" s="8">
         <v>58</v>
       </c>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" t="s" s="22">
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" t="s" s="8">
         <v>47</v>
       </c>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" t="s" s="22">
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" t="s" s="8">
         <v>58</v>
       </c>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" t="s" s="22">
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" t="s" s="8">
         <v>46</v>
       </c>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" t="s" s="22">
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" t="s" s="8">
         <v>47</v>
       </c>
     </row>
     <row r="34">
-      <c r="T34" s="30" t="s">
+      <c r="T34" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="U34" s="30" t="s">
+      <c r="U34" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="V34" s="30" t="s">
+      <c r="V34" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="W34" s="30" t="s">
+      <c r="W34" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="X34" t="s" s="21">
+      <c r="X34" t="s" s="7">
         <v>59</v>
       </c>
     </row>
     <row r="38">
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="O38" s="17" t="s">
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="O38" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="17"/>
-      <c r="V38" s="17"/>
-      <c r="W38" s="17"/>
-      <c r="X38" s="17"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
     </row>
     <row r="39">
-      <c r="O39" s="17" t="s">
+      <c r="O39" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="17"/>
-      <c r="U39" s="17"/>
-      <c r="V39" s="17"/>
-      <c r="W39" s="17"/>
-      <c r="X39" s="17"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
     </row>
     <row r="40"/>
     <row r="41">
-      <c r="O41" s="20" t="s">
+      <c r="O41" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="20"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="20"/>
-      <c r="W41" s="20"/>
-      <c r="X41" s="20"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="120">
@@ -3191,6 +3048,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="C55A11"/>
+  </sheetPr>
   <dimension ref="A4:X41"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="false"/>
@@ -3224,1034 +3084,1034 @@
   </cols>
   <sheetData>
     <row r="4">
-      <c r="A4" t="s" s="31">
+      <c r="A4" t="s" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="33">
+      <c r="A5" t="s" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="32">
+      <c r="A7" t="s" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="32">
+      <c r="A8" t="s" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" t="s" s="34">
+      <c r="B10" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E10" t="s" s="34">
+      <c r="E10" t="s" s="5">
         <v>60</v>
       </c>
-      <c r="P10" t="s" s="34">
+      <c r="P10" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="U10" t="s" s="34">
+      <c r="U10" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="X10" t="s" s="34">
+      <c r="X10" t="s" s="4">
         <v>61</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="36">
+      <c r="A12" t="s" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M13" s="37" t="s">
+      <c r="M13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37" t="s">
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37" t="s">
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="42" t="n">
+      <c r="A14" s="13" t="n">
         <v>1.0</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="39" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="42" t="n">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="13" t="n">
         <v>4.0</v>
       </c>
-      <c r="M14" s="39" t="s">
+      <c r="M14" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="39" t="s">
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="42" t="n">
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="13" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" t="n" s="41">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" t="n" s="12">
         <v>4.0</v>
       </c>
-      <c r="M15" s="40" t="s">
+      <c r="M15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" t="s" s="37">
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" t="s" s="8">
         <v>20</v>
       </c>
     </row>
     <row r="16">
-      <c r="S16" s="45" t="s">
+      <c r="S16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
-      <c r="X16" t="n" s="36">
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" t="n" s="7">
         <v>4.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" t="s" s="38">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" t="s" s="9">
         <v>23</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" t="s" s="37">
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" t="s" s="8">
         <v>24</v>
       </c>
-      <c r="I18" s="38" t="s">
+      <c r="I18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" t="s" s="38">
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" t="s" s="9">
         <v>25</v>
       </c>
-      <c r="M18" s="37" t="s">
+      <c r="M18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" t="s" s="37">
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" t="s" s="8">
         <v>26</v>
       </c>
-      <c r="Q18" s="38" t="s">
+      <c r="Q18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" t="s" s="38">
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="U18" s="37" t="s">
+      <c r="U18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" t="s" s="37">
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" t="s" s="8">
         <v>28</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="E19" s="42" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="I19" s="42" t="s">
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I19" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="M19" s="42" t="s">
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M19" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="Q19" s="42" t="s">
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q19" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="U19" s="42" t="s">
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U19" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" t="s" s="42">
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="E20" s="42" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="I20" s="42" t="s">
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="M20" s="42" t="s">
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="Q20" s="42" t="s">
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="R20" s="42"/>
-      <c r="S20" s="42"/>
-      <c r="T20" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="U20" s="42" t="s">
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" t="s" s="42">
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="E21" s="42" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="I21" s="42" t="s">
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="M21" s="42" t="s">
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="42" t="s">
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-      <c r="T21" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="U21" s="42" t="s">
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
-      <c r="X21" t="s" s="42">
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="E22" s="42" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="I22" s="42" t="s">
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I22" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="M22" s="42" t="s">
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M22" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="Q22" s="42" t="s">
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q22" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="R22" s="42"/>
-      <c r="S22" s="42"/>
-      <c r="T22" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="U22" s="42" t="s">
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U22" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="V22" s="42"/>
-      <c r="W22" s="42"/>
-      <c r="X22" t="s" s="42">
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="E23" s="42" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="I23" s="42" t="s">
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I23" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="M23" s="42" t="s">
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M23" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="Q23" s="42" t="s">
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q23" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="T23" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="U23" s="42" t="s">
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U23" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="V23" s="42"/>
-      <c r="W23" s="42"/>
-      <c r="X23" t="s" s="42">
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="E24" s="42" t="s">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="I24" s="42" t="s">
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I24" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="M24" s="42" t="s">
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M24" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="42" t="s">
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="R24" s="42"/>
-      <c r="S24" s="42"/>
-      <c r="T24" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="U24" s="42" t="s">
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U24" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="V24" s="42"/>
-      <c r="W24" s="42"/>
-      <c r="X24" t="s" s="42">
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="E25" s="42" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="I25" s="42" t="s">
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I25" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="M25" s="42" t="s">
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M25" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="Q25" s="42" t="s">
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q25" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="U25" s="42" t="s">
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U25" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="V25" s="42"/>
-      <c r="W25" s="42"/>
-      <c r="X25" t="s" s="42">
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="E26" s="42" t="s">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="I26" s="42" t="s">
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I26" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="M26" s="42" t="s">
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M26" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="Q26" s="42" t="s">
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q26" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42"/>
-      <c r="T26" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="U26" s="42" t="s">
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U26" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="V26" s="42"/>
-      <c r="W26" s="42"/>
-      <c r="X26" t="s" s="42">
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="E27" s="42" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="I27" s="42" t="s">
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I27" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="M27" s="42" t="s">
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M27" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="Q27" s="42" t="s">
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
-      <c r="T27" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="U27" s="42" t="s">
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U27" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
-      <c r="X27" t="s" s="42">
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="E28" s="42" t="s">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="I28" s="42" t="s">
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I28" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="M28" s="42" t="s">
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M28" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="Q28" s="42" t="s">
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q28" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42"/>
-      <c r="T28" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="U28" s="42" t="s">
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U28" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
-      <c r="X28" t="s" s="42">
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="E29" s="42" t="s">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="I29" s="42" t="s">
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I29" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="M29" s="42" t="s">
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M29" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="Q29" s="42" t="s">
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q29" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="R29" s="42"/>
-      <c r="S29" s="42"/>
-      <c r="T29" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="U29" s="42" t="s">
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U29" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="V29" s="42"/>
-      <c r="W29" s="42"/>
-      <c r="X29" t="s" s="42">
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="E30" s="42" t="s">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="I30" s="42" t="s">
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I30" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="M30" s="42" t="s">
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M30" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="Q30" s="42" t="s">
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="R30" s="42"/>
-      <c r="S30" s="42"/>
-      <c r="T30" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="U30" s="42" t="s">
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U30" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="V30" s="42"/>
-      <c r="W30" s="42"/>
-      <c r="X30" t="s" s="42">
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="E31" s="42" t="s">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="I31" s="42" t="s">
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I31" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="M31" s="42" t="s">
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M31" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="Q31" s="42" t="s">
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q31" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="R31" s="42"/>
-      <c r="S31" s="42"/>
-      <c r="T31" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="U31" s="42" t="s">
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U31" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="V31" s="42"/>
-      <c r="W31" s="42"/>
-      <c r="X31" t="s" s="42">
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="E32" s="42" t="s">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="I32" s="42" t="s">
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="I32" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="M32" s="42" t="s">
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="M32" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="Q32" s="42" t="s">
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q32" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="R32" s="42"/>
-      <c r="S32" s="42"/>
-      <c r="T32" t="s" s="42">
-        <v>30</v>
-      </c>
-      <c r="U32" s="42" t="s">
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="U32" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="V32" s="42"/>
-      <c r="W32" s="42"/>
-      <c r="X32" t="s" s="42">
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" t="s" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D33" t="s" s="37">
+      <c r="D33" t="s" s="8">
         <v>47</v>
       </c>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" t="s" s="37">
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" t="s" s="8">
         <v>47</v>
       </c>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" t="s" s="37">
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" t="s" s="8">
         <v>47</v>
       </c>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" t="s" s="37">
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" t="s" s="8">
         <v>47</v>
       </c>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" t="s" s="37">
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" t="s" s="8">
         <v>47</v>
       </c>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" t="s" s="37">
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" t="s" s="8">
         <v>47</v>
       </c>
     </row>
     <row r="34">
-      <c r="T34" s="45" t="s">
+      <c r="T34" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="U34" s="45" t="s">
+      <c r="U34" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="V34" s="45" t="s">
+      <c r="V34" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="W34" s="45" t="s">
+      <c r="W34" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="X34" t="s" s="36">
+      <c r="X34" t="s" s="7">
         <v>47</v>
       </c>
     </row>
     <row r="38">
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="O38" s="32" t="s">
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="O38" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="32"/>
-      <c r="U38" s="32"/>
-      <c r="V38" s="32"/>
-      <c r="W38" s="32"/>
-      <c r="X38" s="32"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
     </row>
     <row r="39">
-      <c r="O39" s="32" t="s">
+      <c r="O39" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="32"/>
-      <c r="T39" s="32"/>
-      <c r="U39" s="32"/>
-      <c r="V39" s="32"/>
-      <c r="W39" s="32"/>
-      <c r="X39" s="32"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
     </row>
     <row r="40"/>
     <row r="41">
-      <c r="O41" s="35" t="s">
+      <c r="O41" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="35"/>
-      <c r="S41" s="35"/>
-      <c r="T41" s="35"/>
-      <c r="U41" s="35"/>
-      <c r="V41" s="35"/>
-      <c r="W41" s="35"/>
-      <c r="X41" s="35"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="120">
